--- a/bin/config/xlsx/ability.xlsx
+++ b/bin/config/xlsx/ability.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -1019,7 +1019,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:C19"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -1046,8 +1046,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="2:3">
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1074,8 +1077,8 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8">
-        <v>1</v>
+      <c r="C8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1085,8 +1088,8 @@
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9">
-        <v>2</v>
+      <c r="C9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1096,8 +1099,8 @@
       <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C10">
-        <v>3</v>
+      <c r="C10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1107,8 +1110,8 @@
       <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C11">
-        <v>1</v>
+      <c r="C11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1118,8 +1121,8 @@
       <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="C12">
-        <v>2</v>
+      <c r="C12" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1129,8 +1132,8 @@
       <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="C13">
-        <v>3</v>
+      <c r="C13" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1140,8 +1143,8 @@
       <c r="B14" t="s">
         <v>8</v>
       </c>
-      <c r="C14">
-        <v>1</v>
+      <c r="C14" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1151,8 +1154,8 @@
       <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="C15">
-        <v>2</v>
+      <c r="C15" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1162,8 +1165,8 @@
       <c r="B16" t="s">
         <v>10</v>
       </c>
-      <c r="C16">
-        <v>3</v>
+      <c r="C16" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1173,8 +1176,8 @@
       <c r="B17" t="s">
         <v>11</v>
       </c>
-      <c r="C17">
-        <v>1</v>
+      <c r="C17" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1184,8 +1187,8 @@
       <c r="B18" t="s">
         <v>12</v>
       </c>
-      <c r="C18">
-        <v>2</v>
+      <c r="C18" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1195,8 +1198,8 @@
       <c r="B19" t="s">
         <v>13</v>
       </c>
-      <c r="C19">
-        <v>3</v>
+      <c r="C19" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/bin/config/xlsx/ability.xlsx
+++ b/bin/config/xlsx/ability.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17200"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="scene" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="22">
   <si>
     <t>id</t>
   </si>
@@ -38,7 +38,22 @@
     <t>target_type</t>
   </si>
   <si>
+    <t>castpoint(Spell时间点）</t>
+  </si>
+  <si>
+    <t>immediately</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>postcastrecoverytime</t>
+  </si>
+  <si>
     <t>uint32</t>
+  </si>
+  <si>
+    <t>double</t>
   </si>
   <si>
     <t>repeated</t>
@@ -57,6 +72,15 @@
     <t>1技能释放时不需要目标即可释放（如群疗，踩地板技能） -&gt; 1 &lt;&lt; 1
 2技能释放时需要选定目标（单体指向性技能） -&gt; 1 &lt;&lt; 2
 3技能释放时需要以指定地点为目标（常用于AOE技能） -&gt; 1 &lt;&lt; 3</t>
+  </si>
+  <si>
+    <t>CastPoint(Spell时间点）,一般为动画抬手到攻击帧时长。比如说播放一个挥刀动画0.3秒后动画到攻击点，这时策划就配置CastPoint为0.3秒。</t>
+  </si>
+  <si>
+    <t>技能前摇阶段不允许其他技能释放，除非技能可强制立即释放（bImmediately=true）（如有些游戏要求滚动还有解控技可以立即打断当前技能）</t>
+  </si>
+  <si>
+    <t>后摇阶段一般不能被其他技能打断，除非是连招或者强制立即释放类技能。我们的技能系统不需要引入公共CD这个概念，通过前摇后摇阶段的划分就足够满足各种需求了</t>
   </si>
   <si>
     <t>[1]</t>
@@ -766,7 +790,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1016,15 +1040,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1034,172 +1058,259 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
       <c r="B3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" ht="409.5" spans="2:3">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" ht="409.5" spans="2:7">
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="F19" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/bin/config/xlsx/ability.xlsx
+++ b/bin/config/xlsx/ability.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="21440" windowHeight="7060"/>
   </bookViews>
   <sheets>
     <sheet name="scene" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="27">
   <si>
     <t>id</t>
   </si>
@@ -48,6 +48,21 @@
   </si>
   <si>
     <t>postcastrecoverytime</t>
+  </si>
+  <si>
+    <t>channelstart</t>
+  </si>
+  <si>
+    <t>channelthink</t>
+  </si>
+  <si>
+    <t>channelfinish</t>
+  </si>
+  <si>
+    <t>thinkinterval</t>
+  </si>
+  <si>
+    <t>channeltime</t>
   </si>
   <si>
     <t>uint32</t>
@@ -790,7 +805,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1040,15 +1055,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1070,79 +1085,133 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" ht="409.5" spans="2:7">
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1150,13 +1219,13 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1164,13 +1233,13 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1178,13 +1247,13 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1192,13 +1261,13 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1206,13 +1275,13 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1220,13 +1289,13 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1234,13 +1303,13 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1248,13 +1317,13 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1262,13 +1331,13 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1276,13 +1345,13 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1290,13 +1359,13 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1304,13 +1373,13 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/bin/config/xlsx/ability.xlsx
+++ b/bin/config/xlsx/ability.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21440" windowHeight="7060"/>
+    <workbookView windowWidth="21440" windowHeight="8760"/>
   </bookViews>
   <sheets>
-    <sheet name="scene" sheetId="2" r:id="rId1"/>
+    <sheet name="ability" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1058,7 +1058,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/bin/config/xlsx/ability.xlsx
+++ b/bin/config/xlsx/ability.xlsx
@@ -38,7 +38,7 @@
     <t>target_type</t>
   </si>
   <si>
-    <t>castpoint(Spell时间点）</t>
+    <t>castpoint</t>
   </si>
   <si>
     <t>immediately</t>
@@ -1058,7 +1058,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/bin/config/xlsx/ability.xlsx
+++ b/bin/config/xlsx/ability.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="21440" windowHeight="8760"/>
   </bookViews>
   <sheets>
-    <sheet name="ability" sheetId="2" r:id="rId1"/>
+    <sheet name="Aability" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>

--- a/bin/config/xlsx/ability.xlsx
+++ b/bin/config/xlsx/ability.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="21440" windowHeight="8760"/>
   </bookViews>
   <sheets>
-    <sheet name="Aability" sheetId="2" r:id="rId1"/>
+    <sheet name="Ability" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1058,7 +1058,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/bin/config/xlsx/ability.xlsx
+++ b/bin/config/xlsx/ability.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21440" windowHeight="8760"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Ability" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -65,6 +65,33 @@
     <t>channeltime</t>
   </si>
   <si>
+    <t>request_resource</t>
+  </si>
+  <si>
+    <t>resource_cost</t>
+  </si>
+  <si>
+    <t>rquest_target</t>
+  </si>
+  <si>
+    <t>target_status</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>max_range</t>
+  </si>
+  <si>
+    <t>mmin_range</t>
+  </si>
+  <si>
+    <t>self_status</t>
+  </si>
+  <si>
+    <t>required_status</t>
+  </si>
+  <si>
     <t>uint32</t>
   </si>
   <si>
@@ -75,6 +102,9 @@
   </si>
   <si>
     <t>common</t>
+  </si>
+  <si>
+    <t>resource_condition</t>
   </si>
   <si>
     <t>1被动类型的技能(PassiveAblity)
@@ -96,6 +126,36 @@
   </si>
   <si>
     <t>后摇阶段一般不能被其他技能打断，除非是连招或者强制立即释放类技能。我们的技能系统不需要引入公共CD这个概念，通过前摇后摇阶段的划分就足够满足各种需求了</t>
+  </si>
+  <si>
+    <t>资源条件</t>
+  </si>
+  <si>
+    <t>资源数量</t>
+  </si>
+  <si>
+    <t>目标</t>
+  </si>
+  <si>
+    <t>目标类型</t>
+  </si>
+  <si>
+    <t>目标状态</t>
+  </si>
+  <si>
+    <t>技能范围</t>
+  </si>
+  <si>
+    <t>最大距离</t>
+  </si>
+  <si>
+    <t>最小距离</t>
+  </si>
+  <si>
+    <t>自身状态</t>
+  </si>
+  <si>
+    <t>所需状态</t>
   </si>
   <si>
     <t>[1]</t>
@@ -805,7 +865,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1055,15 +1115,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1100,286 +1160,419 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>13</v>
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" t="s">
+        <v>22</v>
+      </c>
+      <c r="T2" t="s">
+        <v>22</v>
+      </c>
+      <c r="U2" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:10">
       <c r="B3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="L4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" ht="409.5" spans="2:7">
+        <v>24</v>
+      </c>
+      <c r="M4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T4" t="s">
+        <v>24</v>
+      </c>
+      <c r="U4" t="s">
+        <v>24</v>
+      </c>
+      <c r="V4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="15:15">
+      <c r="O5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" ht="409.5" spans="2:22">
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" t="s">
-        <v>21</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="M7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>35</v>
+      </c>
+      <c r="R7" t="s">
+        <v>36</v>
+      </c>
+      <c r="S7" t="s">
+        <v>37</v>
+      </c>
+      <c r="T7" t="s">
+        <v>38</v>
+      </c>
+      <c r="U7" t="s">
+        <v>39</v>
+      </c>
+      <c r="V7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
         <v>12</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" t="s">
-        <v>21</v>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/bin/config/xlsx/ability.xlsx
+++ b/bin/config/xlsx/ability.xlsx
@@ -1117,8 +1117,8 @@
   <sheetPr/>
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/bin/config/xlsx/ability.xlsx
+++ b/bin/config/xlsx/ability.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -38,6 +38,12 @@
     <t>target_type</t>
   </si>
   <si>
+    <t>rquest_target</t>
+  </si>
+  <si>
+    <t>target_status</t>
+  </si>
+  <si>
     <t>castpoint</t>
   </si>
   <si>
@@ -69,12 +75,6 @@
   </si>
   <si>
     <t>resource_cost</t>
-  </si>
-  <si>
-    <t>rquest_target</t>
-  </si>
-  <si>
-    <t>target_status</t>
   </si>
   <si>
     <t>range</t>
@@ -119,6 +119,12 @@
 3技能释放时需要以指定地点为目标（常用于AOE技能） -&gt; 1 &lt;&lt; 3</t>
   </si>
   <si>
+    <t>目标</t>
+  </si>
+  <si>
+    <t>目标状态</t>
+  </si>
+  <si>
     <t>CastPoint(Spell时间点）,一般为动画抬手到攻击帧时长。比如说播放一个挥刀动画0.3秒后动画到攻击点，这时策划就配置CastPoint为0.3秒。</t>
   </si>
   <si>
@@ -132,15 +138,6 @@
   </si>
   <si>
     <t>资源数量</t>
-  </si>
-  <si>
-    <t>目标</t>
-  </si>
-  <si>
-    <t>目标类型</t>
-  </si>
-  <si>
-    <t>目标状态</t>
   </si>
   <si>
     <t>技能范围</t>
@@ -1115,15 +1112,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1170,28 +1167,25 @@
         <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1202,37 +1196,37 @@
         <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
         <v>21</v>
       </c>
       <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
         <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
       </c>
       <c r="H2" t="s">
         <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
         <v>21</v>
       </c>
       <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" t="s">
         <v>22</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>22</v>
-      </c>
-      <c r="M2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" t="s">
-        <v>21</v>
       </c>
       <c r="O2" t="s">
         <v>21</v>
@@ -1241,7 +1235,7 @@
         <v>21</v>
       </c>
       <c r="Q2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R2" t="s">
         <v>22</v>
@@ -1250,36 +1244,33 @@
         <v>22</v>
       </c>
       <c r="T2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U2" t="s">
         <v>21</v>
       </c>
-      <c r="V2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10">
+    </row>
+    <row r="3" spans="2:12">
       <c r="B3" t="s">
         <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
       <c r="H3" t="s">
         <v>23</v>
       </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
       <c r="J3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -1343,16 +1334,13 @@
       <c r="U4" t="s">
         <v>24</v>
       </c>
-      <c r="V4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="15:15">
-      <c r="O5" t="s">
+    </row>
+    <row r="5" spans="4:4">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" ht="409.5" spans="2:22">
+    <row r="7" ht="409.5" spans="2:21">
       <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
@@ -1365,13 +1353,13 @@
       <c r="E7" t="s">
         <v>29</v>
       </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
       <c r="G7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" t="s">
         <v>31</v>
       </c>
-      <c r="N7" t="s">
+      <c r="I7" t="s">
         <v>32</v>
       </c>
       <c r="O7" t="s">
@@ -1394,9 +1382,6 @@
       </c>
       <c r="U7" t="s">
         <v>39</v>
-      </c>
-      <c r="V7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="2:3">
@@ -1407,172 +1392,172 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>40</v>
+      </c>
+      <c r="H10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="H11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>42</v>
+      </c>
+      <c r="H12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>40</v>
+      </c>
+      <c r="H13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="H14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>42</v>
+      </c>
+      <c r="H15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>40</v>
+      </c>
+      <c r="H16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="H17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>42</v>
+      </c>
+      <c r="H18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>40</v>
+      </c>
+      <c r="H19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="H20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="H21" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/bin/config/xlsx/ability.xlsx
+++ b/bin/config/xlsx/ability.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>castpoint</t>
+  </si>
+  <si>
+    <t>recoverytime</t>
   </si>
   <si>
     <t>immediately</t>
@@ -126,6 +129,9 @@
   </si>
   <si>
     <t>CastPoint(Spell时间点）,一般为动画抬手到攻击帧时长。比如说播放一个挥刀动画0.3秒后动画到攻击点，这时策划就配置CastPoint为0.3秒。</t>
+  </si>
+  <si>
+    <t>后摇阶段</t>
   </si>
   <si>
     <t>技能前摇阶段不允许其他技能释放，除非技能可强制立即释放（bImmediately=true）（如有些游戏要求滚动还有解控技可以立即打断当前技能）</t>
@@ -1112,15 +1118,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U21"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1184,204 +1190,216 @@
       <c r="U1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
         <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M2" t="s">
         <v>22</v>
       </c>
       <c r="N2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" t="s">
         <v>22</v>
-      </c>
-      <c r="O2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" t="s">
-        <v>21</v>
       </c>
       <c r="Q2" t="s">
         <v>22</v>
       </c>
       <c r="R2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" t="s">
         <v>22</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>22</v>
       </c>
-      <c r="T2" t="s">
-        <v>21</v>
-      </c>
-      <c r="U2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12">
+    </row>
+    <row r="3" spans="2:13">
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U4" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="V4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" ht="409.5" spans="2:21">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" ht="409.5" spans="2:22">
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" t="s">
         <v>32</v>
       </c>
-      <c r="O7" t="s">
+      <c r="H7" t="s">
         <v>33</v>
       </c>
+      <c r="J7" t="s">
+        <v>34</v>
+      </c>
       <c r="P7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U7" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="V7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="2:3">
@@ -1392,172 +1410,172 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
-      </c>
-      <c r="H18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
-      </c>
-      <c r="H20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
-      </c>
-      <c r="H21" t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="I21" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
